--- a/realsense/numbers/speed/speed-prop-improve-v1-pepper_tileExpand_ptAll.xlsx
+++ b/realsense/numbers/speed/speed-prop-improve-v1-pepper_tileExpand_ptAll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taw11\source\repos2\At-oZ\realsense\realsense\numbers\speed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{3D72CA26-C649-4C00-B255-B46E1E36FEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0C6152CE-25F4-445D-B112-B1B7C095EB1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8F7AACD0-EC3A-4693-BA04-7311ADE6155A}"/>
   </bookViews>
@@ -2805,7 +2805,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
